--- a/biology/Histoire de la zoologie et de la botanique/Filippo_Bonanni/Filippo_Bonanni.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Filippo_Bonanni/Filippo_Bonanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filippo Bonanni ou Filippo Buonanni, né le 7 janvier 1638 à Rome et y décédé le 30 mars 1725, était un prêtre jésuite italien, homme de science, collectionneur et directeur du musée Kircher du Collège romain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant d'entrer dans la Compagnie de Jésus il est étudiant au Collège romain de Rome, où il suit l'enseignement d'Athanasius Kircher. Il entre au noviciat jésuite le 3 octobre 1655.
 Bonanni enseigne quelque temps à Orvieto avant de revenir à Rome - de nouveau au Collège romain - pour ses études de théologie ; il est ordonné prêtre en 1669. Outre Kircher il est en contact avec Pietro Sforza Pallavicino, historien et théologien de renom.
@@ -548,16 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malacologie
-Buonanni est un collectionneur de coquillages et est l'auteur du premier livre consacré uniquement à ces animaux. Il fait paraître à Rome en 1681 Ricreatione dell' occhio e della mente... qui contient de très nombreuses illustrations de coquillages qui, bien qu'inversés[1], ont été retenues par Carl von Linné. Mais ses connaissances sur l'anatomie des mollusques sont assez réduites tout comme sa classification moins juste que celle d'Aristote. Même s'il apporte peu de connaissances nouvelles et reproduit les légendes colportées par les auteurs anciens, il défend l'intérêt des collections de coquillages auprès de ses contemporains. Il s'intéresse à la question de la révolution des coquilles ainsi qu'à l'importance économique de ces animaux. Buonanni est un ecclésiastique sans véritable bagage scientifique ni expérience de terrain. Mais son livre est précieux par la compilation des connaissances et les illustrations qu'il offre. Il ne sera supplanté que par les études sur les mollusques de Martin Lister (1639-1712).
-Défense de la génération spontanée
-Il se bat contre les adversaires de la génération spontanée, notamment Francesco Redi (1626-1697). À cette fin, il multiplie les observations faites à l'aide d'un microscope muni de trois lentilles qu'il construit lui-même. Il tente de montrer, par de fines observations, que la génération spontanée est possible chez les animaux sans sang et sans cœur.
-Il publie en 1691, Observationes circa Viventia, quae in Rebus non Viventibus reperiuntur.
-Les illustrations qui illustrent ses différents travaux sont excellentes et prouvent la qualité de ses observations.
-Le cabinet de curiosités de Kircher
-Il publie un catalogue du musée Kircher hébergé par le Collège romain dont il est le conservateur depuis 1698 : Musæum Kircherianum, sive Musæum a P.A. Kirchero in Collegio Romano Societatis Jesu... descriptum etc. (1709, Rome). Il redonne vie au musée laissé à l'abandon après la mort de Kircher en 1680.
-Médailles et monnaies
-Il est également un collectionneur de médailles et de monnaies sur lesquelles il publie plusieurs ouvrages.
+          <t>Malacologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buonanni est un collectionneur de coquillages et est l'auteur du premier livre consacré uniquement à ces animaux. Il fait paraître à Rome en 1681 Ricreatione dell' occhio e della mente... qui contient de très nombreuses illustrations de coquillages qui, bien qu'inversés, ont été retenues par Carl von Linné. Mais ses connaissances sur l'anatomie des mollusques sont assez réduites tout comme sa classification moins juste que celle d'Aristote. Même s'il apporte peu de connaissances nouvelles et reproduit les légendes colportées par les auteurs anciens, il défend l'intérêt des collections de coquillages auprès de ses contemporains. Il s'intéresse à la question de la révolution des coquilles ainsi qu'à l'importance économique de ces animaux. Buonanni est un ecclésiastique sans véritable bagage scientifique ni expérience de terrain. Mais son livre est précieux par la compilation des connaissances et les illustrations qu'il offre. Il ne sera supplanté que par les études sur les mollusques de Martin Lister (1639-1712).
 </t>
         </is>
       </c>
@@ -583,18 +594,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Contributions diverses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Défense de la génération spontanée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se bat contre les adversaires de la génération spontanée, notamment Francesco Redi (1626-1697). À cette fin, il multiplie les observations faites à l'aide d'un microscope muni de trois lentilles qu'il construit lui-même. Il tente de montrer, par de fines observations, que la génération spontanée est possible chez les animaux sans sang et sans cœur.
+Il publie en 1691, Observationes circa Viventia, quae in Rebus non Viventibus reperiuntur.
+Les illustrations qui illustrent ses différents travaux sont excellentes et prouvent la qualité de ses observations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contributions diverses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le cabinet de curiosités de Kircher</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie un catalogue du musée Kircher hébergé par le Collège romain dont il est le conservateur depuis 1698 : Musæum Kircherianum, sive Musæum a P.A. Kirchero in Collegio Romano Societatis Jesu... descriptum etc. (1709, Rome). Il redonne vie au musée laissé à l'abandon après la mort de Kircher en 1680.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contributions diverses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médailles et monnaies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est également un collectionneur de médailles et de monnaies sur lesquelles il publie plusieurs ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Recreatio mentis et oculi in obseruatione cochlearum (1684)
 Micrographia Curiosa (1691)
 Numismata Pontificum Romanorum (1699)
 (it) Gabinetto armonico pieno d'istromenti sonori indicati e spiegati, Stamperia di G. Placho, Rome, 1722 (réimpr. 1723, 1776), In-4°, 170 p.
-Ce livre est une source documentaire sur la musique ancienne.
-Publications
-(it) Ricreatione dell'occhio e della mente nell'osservation delle chiocciole, Varese, Felice Cesaretti, 1681 (lire en ligne)
+Ce livre est une source documentaire sur la musique ancienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filippo_Bonanni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(it) Ricreatione dell'occhio e della mente nell'osservation delle chiocciole, Varese, Felice Cesaretti, 1681 (lire en ligne)
 (la) Observationes circa viventia, quae in rebus non viventibus reperiuntur, Roma, Domenico Antonio Ercole, 1691 (lire en ligne)
 (la) Micrographia curiosa, Roma, Antonio De Rossi, 1703 (lire en ligne)
 (la) Musaeum Kircherianum, Roma, Giorgio Placho, 1709 (lire en ligne)
